--- a/SCRUM/SCRUM_TEAM_H.xlsx
+++ b/SCRUM/SCRUM_TEAM_H.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>120min</t>
+  </si>
+  <si>
+    <t>Otello Spiel fertig</t>
+  </si>
+  <si>
+    <t>360min</t>
+  </si>
+  <si>
+    <t>Evtl. Otello Spiel PC Gegner</t>
   </si>
 </sst>
 </file>
@@ -982,7 +991,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,6 +1126,9 @@
       <c r="D8" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -1131,7 +1143,9 @@
       <c r="D9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -1146,7 +1160,9 @@
       <c r="D10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -1161,19 +1177,37 @@
       <c r="D11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
